--- a/notebooks/2022_alt_approach/OldVsNewAnalysis.xlsx
+++ b/notebooks/2022_alt_approach/OldVsNewAnalysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e6eca6301dd5947e/Documents/march_madness/notebooks/2022_alt_approach/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="8_{1ED9132C-009C-4D4E-AA92-FC6121AFC860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFCCA7E2-AD7F-4B80-B63A-C132269A7C86}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{1ED9132C-009C-4D4E-AA92-FC6121AFC860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{128858D1-0D9A-4A85-A0AF-C17790054AF9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1340E533-402D-409E-87F3-A0B5FEAFC853}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Old Approach</t>
   </si>
@@ -113,6 +113,12 @@
   </si>
   <si>
     <t>Purdue in sweet 16</t>
+  </si>
+  <si>
+    <t>Arizona beats Gonzaga</t>
+  </si>
+  <si>
+    <t>Gonzaga beats Arizona</t>
   </si>
 </sst>
 </file>
@@ -506,7 +512,7 @@
   <dimension ref="B2:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,8 +626,12 @@
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="B15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
